--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D417C6A0-FCFE-44DA-B11C-B556C73D3446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70A0A12-0C27-4587-8ECB-E49C78A3EE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="130">
   <si>
     <r>
       <rPr>
@@ -2060,6 +2060,38 @@
       </rPr>
       <t>號</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE_ADD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE_TEL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VILLAGE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VILLAGE_OFFICE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VILLAGE_TEL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室與設施資訊表Village Office and Facility Information Table</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2137,7 +2169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2160,13 +2192,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2188,25 +2257,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2238,6 +2289,48 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2553,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2902,7 +2995,7 @@
       <c r="E10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="2">
@@ -2956,22 +3049,27 @@
         <v>56</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="23"/>
+    </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="12"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="2"/>
       <c r="G15" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="13"/>
-      <c r="E16" s="8"/>
-      <c r="G16" s="21" t="s">
+      <c r="E16" s="2"/>
+      <c r="G16" s="15" t="s">
         <v>69</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -2980,10 +3078,9 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="13"/>
-      <c r="E17" s="8"/>
-      <c r="G17" s="21" t="s">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+      <c r="G17" s="15" t="s">
         <v>70</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -2992,10 +3089,9 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="13"/>
-      <c r="E18" s="8"/>
-      <c r="G18" s="21" t="s">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
+      <c r="G18" s="15" t="s">
         <v>71</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -3004,8 +3100,8 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G19" s="21" t="s">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G19" s="15" t="s">
         <v>72</v>
       </c>
       <c r="H19" s="6" t="s">
@@ -3014,735 +3110,687 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>8</v>
-      </c>
+    <row r="20" spans="4:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="25"/>
+      <c r="H20" s="19"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="G21" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="23"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>18</v>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="22" t="s">
-        <v>22</v>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="22" t="s">
-        <v>27</v>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>73</v>
+        <v>23</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="22" t="s">
-        <v>33</v>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="22" t="s">
-        <v>38</v>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="22" t="s">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="28"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D28" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="22" t="s">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D29" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G29" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="22" t="s">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G30" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G30" s="22" t="s">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G31" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="14" t="s">
+    <row r="32" spans="4:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="23"/>
+      <c r="G33" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E34" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="22" t="s">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G35" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I35" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="22" t="s">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G36" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I36" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="22" t="s">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G37" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I37" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="22" t="s">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="22" t="s">
-        <v>94</v>
+      <c r="C39" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="22" t="s">
-        <v>95</v>
+      <c r="C40" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="2"/>
+      <c r="C41" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>97</v>
+      <c r="C42" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="19"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="22" t="s">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="22" t="s">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="22" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="22" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C50" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="22" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="22" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C52" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="22" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="19"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="31"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C56" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D56" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B57" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C57" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D57" s="9">
         <v>100</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E57" s="9">
         <v>1</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F57" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B58" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C58" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D58" s="9">
         <v>3142</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E58" s="9">
         <v>1</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F58" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B59" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C59" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D59" s="9">
         <v>1072</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E59" s="9">
         <v>1</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F59" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B60" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C60" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D60" s="9">
         <v>32</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E60" s="9">
         <v>1</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B61" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C61" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D61" s="9">
         <v>106</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E61" s="9">
         <v>1</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F61" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B62" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C62" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D62" s="9">
         <v>26</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E62" s="9">
         <v>1</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F62" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B63" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C63" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D63" s="9">
         <v>2038</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E63" s="9">
         <v>2</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F63" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B64" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C64" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D64" s="9">
         <v>128</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E64" s="9">
         <v>2</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F64" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D61" s="15">
-        <v>353</v>
-      </c>
-      <c r="E61" s="15">
-        <v>1</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="15">
-        <v>501</v>
-      </c>
-      <c r="E62" s="15">
-        <v>1</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D63" s="15">
-        <v>194</v>
-      </c>
-      <c r="E63" s="15">
-        <v>1</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" s="15">
-        <v>78</v>
-      </c>
-      <c r="E64" s="15">
-        <v>1</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -3750,23 +3798,122 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="10"/>
-      <c r="C67" s="11"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="10"/>
-      <c r="C68" s="11"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="10"/>
-      <c r="C69" s="11"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="9">
+        <v>353</v>
+      </c>
+      <c r="E65" s="9">
+        <v>1</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" s="9">
+        <v>501</v>
+      </c>
+      <c r="E66" s="9">
+        <v>1</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="9">
+        <v>194</v>
+      </c>
+      <c r="E67" s="9">
+        <v>1</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="9">
+        <v>78</v>
+      </c>
+      <c r="E68" s="9">
+        <v>1</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C74" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A55:F55"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70A0A12-0C27-4587-8ECB-E49C78A3EE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E1AAB1-E457-4D69-A492-63C42A26DC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="131">
   <si>
     <r>
       <rPr>
@@ -2092,6 +2092,10 @@
   </si>
   <si>
     <t>村里辦公室與設施資訊表Village Office and Facility Information Table</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2235,7 +2239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2290,39 +2294,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2331,6 +2302,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2646,10 +2653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3050,30 +3057,25 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="23"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
-      <c r="E15" s="2"/>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="7"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="2"/>
-      <c r="G16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -3081,10 +3083,10 @@
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E17" s="2"/>
       <c r="G17" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -3092,605 +3094,556 @@
     <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E18" s="2"/>
       <c r="G18" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
       <c r="G19" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="4:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G20" s="25"/>
-      <c r="H20" s="19"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="G21" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="23"/>
+      <c r="H21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D22" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="G22" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="20"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="D23" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="G23" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="21"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>44</v>
+      <c r="D24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D25" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D26" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D27" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29" s="16" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D31" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D32" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G32" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G31" s="16" t="s">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="4:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="20" t="s">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="23"/>
-      <c r="G33" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="8" t="s">
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E37" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="G37" s="32"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" s="23"/>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="19"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="20" t="s">
+      <c r="G45" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="G46" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="8" t="s">
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="G47" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D49" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C50" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C51" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C52" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C53" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C55" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C56" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="19"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="31"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B60" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D60" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F60" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="9">
-        <v>100</v>
-      </c>
-      <c r="E57" s="9">
-        <v>1</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58" s="9">
-        <v>3142</v>
-      </c>
-      <c r="E58" s="9">
-        <v>1</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="9">
-        <v>1072</v>
-      </c>
-      <c r="E59" s="9">
-        <v>1</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="9">
-        <v>32</v>
-      </c>
-      <c r="E60" s="9">
-        <v>1</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -3703,19 +3656,19 @@
         <v>69</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>114</v>
+        <v>12</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="D61" s="9">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E61" s="9">
         <v>1</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -3724,23 +3677,23 @@
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>69</v>
+      <c r="A62" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>115</v>
+        <v>22</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="D62" s="9">
-        <v>26</v>
+        <v>3142</v>
       </c>
       <c r="E62" s="9">
         <v>1</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -3753,19 +3706,19 @@
         <v>70</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>116</v>
+        <v>27</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="D63" s="9">
-        <v>2038</v>
+        <v>1072</v>
       </c>
       <c r="E63" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -3775,22 +3728,22 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>117</v>
+        <v>33</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="D64" s="9">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="E64" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -3799,23 +3752,23 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>71</v>
+      <c r="A65" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>118</v>
+        <v>38</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="D65" s="9">
-        <v>353</v>
+        <v>106</v>
       </c>
       <c r="E65" s="9">
         <v>1</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -3824,23 +3777,23 @@
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>72</v>
+      <c r="A66" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>119</v>
+        <v>38</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="D66" s="9">
-        <v>501</v>
+        <v>26</v>
       </c>
       <c r="E66" s="9">
         <v>1</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -3849,23 +3802,23 @@
       <c r="K66" s="2"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>69</v>
+      <c r="A67" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>120</v>
+        <v>38</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="D67" s="9">
-        <v>194</v>
+        <v>2038</v>
       </c>
       <c r="E67" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -3875,22 +3828,22 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>121</v>
+        <v>38</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="D68" s="9">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="E68" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -3898,21 +3851,129 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="9">
+        <v>353</v>
+      </c>
+      <c r="E69" s="9">
+        <v>1</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="9">
+        <v>501</v>
+      </c>
+      <c r="E70" s="9">
+        <v>1</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+    </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C71" s="2"/>
+      <c r="A71" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="9">
+        <v>194</v>
+      </c>
+      <c r="E71" s="9">
+        <v>1</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C74" s="2"/>
+      <c r="A72" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" s="9">
+        <v>78</v>
+      </c>
+      <c r="E72" s="9">
+        <v>1</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C78" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A55:F55"/>
+  <mergeCells count="9">
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="G42:I42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E1AAB1-E457-4D69-A492-63C42A26DC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E5657A-9274-490A-B8DA-72755844644C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="143">
   <si>
     <r>
       <rPr>
@@ -1402,28 +1402,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>類別</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(PK)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>H001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1444,28 +1422,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>分局地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(PK)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>M001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1486,28 +1442,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>分局電話</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(PK)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>P001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1528,98 +1462,58 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>轄管分局代碼(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
+      <t>苗栗縣頭份市信義里中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(194</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>苗栗縣頭份市信義里中正路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>65</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(194</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里辦公室</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里辦公室代號(PK)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>V001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1650,14 +1544,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>村里辦公室電話</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里辦公室電話(PK)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>VP001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1681,36 +1567,6 @@
   </si>
   <si>
     <t>VP008</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>村里別代號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(PK)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>設施地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>容人數量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2096,6 +1952,370 @@
   </si>
   <si>
     <t>PK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里別代號(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CHAR(4BYTE))</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室代號((CHAR(4BYTE))</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分局地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>((CHAR(4BYTE))</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>轄管分局代碼(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(CHAR(4BYTE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>類別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>((CHAR(4BYTE))</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分局電話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>((CHAR(4BYTE))</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里別(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NVARCHAR2(20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>類別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NVARCHAR2(20)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>轄管分局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NVARCHAR2(20)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分局地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NVARCHAR2(20)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室NVARCHAR2(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室電話VARCHAR2(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分局電話VARCHAR2(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>設施地址NVARCHAR2(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>容人數量VARCHAR2(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室電話(CHAR(4BYTE))</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>轄管分局代碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CHAR(4BYTE)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里別代號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CHAR(4BYTE)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地下樓層數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CHAR(4BYTE)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分局地址CHAR(4BYTE)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>轄管分局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CHAR(4BYTE)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CHAR(4BYTE)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室代號CHAR(4BYTE)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2239,7 +2459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2294,6 +2514,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2302,9 +2534,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2315,29 +2544,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2655,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3003,7 +3211,7 @@
         <v>66</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -3057,25 +3265,25 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G14" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" s="20"/>
+      <c r="G14" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G15" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="21"/>
+      <c r="G15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="7"/>
       <c r="E16" s="2"/>
       <c r="G16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -3083,7 +3291,7 @@
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E17" s="2"/>
       <c r="G17" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>11</v>
@@ -3094,7 +3302,7 @@
     <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E18" s="2"/>
       <c r="G18" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>21</v>
@@ -3105,7 +3313,7 @@
     <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
       <c r="G19" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>32</v>
@@ -3115,7 +3323,7 @@
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="G20" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>57</v>
@@ -3129,41 +3337,41 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="G22" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="20"/>
+      <c r="D22" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="G22" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="24"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="G23" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H23" s="21"/>
+      <c r="D23" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="G23" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="18"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>2</v>
+        <v>120</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>8</v>
+        <v>123</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -3208,7 +3416,7 @@
         <v>28</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>54</v>
@@ -3235,11 +3443,11 @@
       <c r="E29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
+      <c r="G29" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D30" s="16" t="s">
@@ -3248,11 +3456,11 @@
       <c r="E30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
+      <c r="G30" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D31" s="16" t="s">
@@ -3262,13 +3470,13 @@
         <v>59</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>9</v>
+        <v>122</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.25">
@@ -3279,10 +3487,10 @@
         <v>64</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>19</v>
@@ -3290,10 +3498,10 @@
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G33" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>45</v>
@@ -3301,52 +3509,51 @@
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G34" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
+      <c r="C35" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
+      <c r="C36" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>2</v>
+        <v>121</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
+        <v>130</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>12</v>
@@ -3354,13 +3561,13 @@
       <c r="E38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>22</v>
@@ -3368,13 +3575,13 @@
       <c r="E39" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>27</v>
@@ -3382,13 +3589,13 @@
       <c r="E40" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>33</v>
@@ -3401,7 +3608,7 @@
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>38</v>
@@ -3409,15 +3616,15 @@
       <c r="E42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="24"/>
+      <c r="G42" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="26"/>
+      <c r="I42" s="27"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>48</v>
@@ -3425,15 +3632,15 @@
       <c r="E43" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="21" t="s">
-        <v>130</v>
+      <c r="G43" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>58</v>
@@ -3442,30 +3649,30 @@
         <v>60</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>10</v>
+        <v>125</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" s="16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>20</v>
@@ -3476,59 +3683,59 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="G46" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
+      <c r="C47" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="24"/>
       <c r="G47" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="C48" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C49" s="8" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C50" s="16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>15</v>
@@ -3536,10 +3743,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C51" s="16" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>25</v>
@@ -3547,10 +3754,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C52" s="16" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>30</v>
@@ -3558,10 +3765,10 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C53" s="16" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>36</v>
@@ -3569,10 +3776,10 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C54" s="16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>41</v>
@@ -3580,10 +3787,10 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C55" s="16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>51</v>
@@ -3591,10 +3798,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C56" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>61</v>
@@ -3602,10 +3809,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C57" s="16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>66</v>
@@ -3617,33 +3824,33 @@
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="20"/>
+      <c r="A59" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="24"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>1</v>
+      <c r="B60" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>7</v>
+        <v>134</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -3653,13 +3860,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D61" s="9">
         <v>100</v>
@@ -3678,13 +3885,13 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D62" s="9">
         <v>3142</v>
@@ -3703,13 +3910,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D63" s="9">
         <v>1072</v>
@@ -3728,13 +3935,13 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D64" s="9">
         <v>32</v>
@@ -3753,13 +3960,13 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D65" s="9">
         <v>106</v>
@@ -3768,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -3778,13 +3985,13 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D66" s="9">
         <v>26</v>
@@ -3803,13 +4010,13 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D67" s="9">
         <v>2038</v>
@@ -3818,7 +4025,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -3828,13 +4035,13 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D68" s="9">
         <v>128</v>
@@ -3853,13 +4060,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D69" s="9">
         <v>353</v>
@@ -3878,13 +4085,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D70" s="9">
         <v>501</v>
@@ -3903,13 +4110,13 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D71" s="9">
         <v>194</v>
@@ -3928,13 +4135,13 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D72" s="9">
         <v>78</v>

--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E5657A-9274-490A-B8DA-72755844644C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD09CB9-AB8D-4634-858B-47B4FE18C4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12975" windowHeight="15600" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="167">
   <si>
     <r>
       <rPr>
@@ -1947,10 +1947,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>村里辦公室與設施資訊表Village Office and Facility Information Table</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2193,10 +2189,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>容人數量VARCHAR2(20)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>村里辦公室電話(CHAR(4BYTE))</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2253,6 +2245,66 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
+      <t>轄管分局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CHAR(4BYTE)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CHAR(4BYTE)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室代號CHAR(4BYTE)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別CHAR(4BYTE)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>容人數量INTEGER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
       <t>地下樓層數</t>
     </r>
     <r>
@@ -2262,60 +2314,93 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>CHAR(4BYTE)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分局地址CHAR(4BYTE)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>轄管分局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>CHAR(4BYTE)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>村里別</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>CHAR(4BYTE)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里辦公室代號CHAR(4BYTE)</t>
+      <t>INTEGER</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARCH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VILL_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATE_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFF_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室與設施資訊表VILLAGE_OFFICE_SUB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>03 766 3004</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2459,7 +2544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2473,9 +2558,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2535,6 +2617,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2545,6 +2636,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2861,1328 +2955,1669 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>2</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G14" s="22" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H14" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G15" s="18" t="s">
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H15" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="6"/>
+      <c r="F16" s="2"/>
+      <c r="H16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="H17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+      <c r="H18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="H19" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H20" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="I21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="H22" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E23" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="H23" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="7"/>
-      <c r="E16" s="2"/>
-      <c r="G16" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="F24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="2"/>
-      <c r="G17" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="2"/>
-      <c r="G18" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="2"/>
-      <c r="G19" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G20" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="G22" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="G23" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="4" t="s">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E32" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="16" t="s">
+      <c r="E37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D32" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G33" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G34" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="16" t="s">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="16" t="s">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="16" t="s">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="16" t="s">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="H42" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="26"/>
-      <c r="I42" s="27"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="16" t="s">
+      <c r="I42" s="28"/>
+      <c r="J42" s="29"/>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="16" t="s">
+      <c r="H43" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="16" t="s">
+      <c r="H44" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D45" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="H45" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H45" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="G46" s="16" t="s">
+      <c r="F46" s="2"/>
+      <c r="H46" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="H46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="22" t="s">
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="24"/>
-      <c r="G47" s="16" t="s">
+      <c r="E47" s="25"/>
+      <c r="F47" s="26"/>
+      <c r="H47" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="H48" s="2"/>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
       <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D49" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="16" t="s">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D50" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="F50" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="16" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D51" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="16" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D52" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="F52" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="16" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D53" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="F53" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="16" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D54" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="F54" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="16" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D55" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="F55" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="16" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D56" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="16" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D57" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="F57" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="2"/>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="24"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60" s="17" t="s">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="26"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="23"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" s="9">
-        <v>100</v>
-      </c>
-      <c r="E61" s="9">
-        <v>1</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" s="9">
-        <v>3142</v>
-      </c>
-      <c r="E62" s="9">
-        <v>1</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" s="9">
-        <v>1072</v>
-      </c>
-      <c r="E63" s="9">
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="8">
+        <v>100</v>
+      </c>
+      <c r="F63" s="8">
         <v>1</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="G63" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>70</v>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>155</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" s="9">
-        <v>32</v>
-      </c>
-      <c r="E64" s="9">
+        <v>69</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="8">
+        <v>3142</v>
+      </c>
+      <c r="F64" s="8">
         <v>1</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="G64" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>68</v>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>156</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" s="9">
-        <v>106</v>
-      </c>
-      <c r="E65" s="9">
+        <v>69</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="8">
+        <v>1072</v>
+      </c>
+      <c r="F65" s="8">
         <v>1</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" s="2"/>
+      <c r="G65" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>68</v>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>157</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D66" s="9">
-        <v>26</v>
-      </c>
-      <c r="E66" s="9">
+        <v>70</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" s="8">
+        <v>32</v>
+      </c>
+      <c r="F66" s="8">
         <v>1</v>
       </c>
-      <c r="F66" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G66" s="2"/>
+      <c r="G66" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="9" t="s">
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D67" s="9">
-        <v>2038</v>
-      </c>
-      <c r="E67" s="9">
-        <v>2</v>
-      </c>
-      <c r="F67" s="9" t="s">
+      <c r="D67" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="8">
+        <v>106</v>
+      </c>
+      <c r="F67" s="8">
+        <v>1</v>
+      </c>
+      <c r="G67" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" s="9">
-        <v>128</v>
-      </c>
-      <c r="E68" s="9">
-        <v>2</v>
-      </c>
-      <c r="F68" s="9" t="s">
+      <c r="D68" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="8">
+        <v>26</v>
+      </c>
+      <c r="F68" s="8">
+        <v>1</v>
+      </c>
+      <c r="G68" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>70</v>
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>160</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D69" s="9">
-        <v>353</v>
-      </c>
-      <c r="E69" s="9">
-        <v>1</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G69" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="8">
+        <v>2038</v>
+      </c>
+      <c r="F69" s="8">
+        <v>2</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>71</v>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>161</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="9">
-        <v>501</v>
-      </c>
-      <c r="E70" s="9">
-        <v>1</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G70" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" s="8">
+        <v>128</v>
+      </c>
+      <c r="F70" s="8">
+        <v>2</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>68</v>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>162</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D71" s="9">
-        <v>194</v>
-      </c>
-      <c r="E71" s="9">
+        <v>70</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="8">
+        <v>353</v>
+      </c>
+      <c r="F71" s="8">
         <v>1</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="G71" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" s="9">
-        <v>78</v>
-      </c>
-      <c r="E72" s="9">
+      <c r="C72" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="8">
+        <v>501</v>
+      </c>
+      <c r="F72" s="8">
         <v>1</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="G72" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C78" s="2"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E73" s="8">
+        <v>194</v>
+      </c>
+      <c r="F73" s="8">
+        <v>1</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="8">
+        <v>78</v>
+      </c>
+      <c r="F74" s="8">
+        <v>1</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="26"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="J77" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="17"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="J78" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J79" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K79" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L79" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M79" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J83" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E85" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E86" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E87" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E88" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="G42:I42"/>
+  <mergeCells count="12">
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H42:J42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SQL/SQL評量_正規化題目.xlsx
+++ b/SQL/SQL評量_正規化題目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD09CB9-AB8D-4634-858B-47B4FE18C4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0089B4-7E1E-46EC-848E-27FC700C77C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12975" windowHeight="15600" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="168">
   <si>
     <r>
       <rPr>
@@ -2401,6 +2401,10 @@
   </si>
   <si>
     <t>03 766 3004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDCHAR(4BYTE)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2452,7 +2456,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2474,6 +2478,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2544,7 +2554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2611,19 +2621,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2638,8 +2642,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2957,12 +2961,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.625" bestFit="1" customWidth="1"/>
@@ -3361,10 +3366,10 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="26"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H15" s="17" t="s">
@@ -3433,14 +3438,14 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="H22" s="24" t="s">
+      <c r="F22" s="22"/>
+      <c r="H22" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="I22" s="26"/>
+      <c r="I22" s="22"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
@@ -3539,11 +3544,11 @@
       <c r="F29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E30" s="15" t="s">
@@ -3615,14 +3620,14 @@
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="22"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D36" s="17" t="s">
@@ -3712,11 +3717,11 @@
       <c r="F42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I42" s="28"/>
-      <c r="J42" s="29"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D43" s="15" t="s">
@@ -3789,11 +3794,11 @@
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="26"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="22"/>
       <c r="H47" s="15" t="s">
         <v>80</v>
       </c>
@@ -3920,49 +3925,53 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="24" t="s">
+      <c r="A59" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="26"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="23"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="21" t="s">
+      <c r="A61" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G61" s="23" t="s">
+      <c r="G61" s="18" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>143</v>
+      <c r="A62" s="29" t="s">
+        <v>167</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>140</v>
@@ -3989,7 +3998,7 @@
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -4017,7 +4026,7 @@
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="9" t="s">
         <v>155</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -4045,7 +4054,7 @@
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -4073,7 +4082,7 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="9" t="s">
         <v>157</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -4101,7 +4110,7 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="9" t="s">
         <v>158</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -4129,7 +4138,7 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="9" t="s">
         <v>159</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -4157,7 +4166,7 @@
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="9" t="s">
         <v>160</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -4185,7 +4194,7 @@
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="9" t="s">
         <v>161</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -4213,7 +4222,7 @@
       <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -4241,7 +4250,7 @@
       <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="9" t="s">
         <v>163</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -4269,7 +4278,7 @@
       <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="9" t="s">
         <v>164</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -4297,7 +4306,7 @@
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="9" t="s">
         <v>165</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -4325,23 +4334,23 @@
       <c r="L74" s="2"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C77" s="26"/>
+      <c r="C77" s="22"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="31" t="s">
+      <c r="E77" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="J77" s="31" t="s">
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="J77" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="K77" s="31"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B78" s="17" t="s">
@@ -4606,7 +4615,6 @@
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="E77:H77"/>
     <mergeCell ref="J77:M77"/>
-    <mergeCell ref="B59:G59"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H29:J29"/>
@@ -4615,6 +4623,7 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A59:G59"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
